--- a/Injections/2022-06-06/InjectionData_2022-06-06.xlsx
+++ b/Injections/2022-06-06/InjectionData_2022-06-06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Injections/2022-06-06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amymad138\Documents\Ecuador2022\Injections\2022-06-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCFCD5BD-6B90-8C44-BAC4-7A3FE639A4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C88178-2F3B-41D1-B357-995EE2C28F46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{BEB17404-6336-4DE6-B01A-90F77B85CD7A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15500" firstSheet="1" activeTab="2" xr2:uid="{BEB17404-6336-4DE6-B01A-90F77B85CD7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
   <si>
     <t>Injection Date</t>
   </si>
@@ -260,13 +252,73 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Injection (Plateau)</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>Qr</t>
+  </si>
+  <si>
+    <t>release rate</t>
+  </si>
+  <si>
+    <t>mL/min</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>chloride (or conducrivity) concentration of the injection solution</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <t>Plateau chloride concentration</t>
+  </si>
+  <si>
+    <t>Cb</t>
+  </si>
+  <si>
+    <t>background (prelease) chloride concentration</t>
+  </si>
+  <si>
+    <t>(average of the before injection spc conductity)</t>
+  </si>
+  <si>
+    <t>stream discharge</t>
+  </si>
+  <si>
+    <t>Q=((Cr-Cb)*Qr)/(Cp-Cb)</t>
+  </si>
+  <si>
+    <t>L/s</t>
+  </si>
+  <si>
+    <t>m^3/s</t>
+  </si>
+  <si>
+    <t>Discharge_salt injections (m^3/s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +380,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -401,7 +465,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -425,6 +489,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -2357,12 +2423,12 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2370,7 +2436,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -2378,7 +2444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2386,7 +2452,7 @@
         <v>0.55972222222222223</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2394,7 +2460,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2402,7 +2468,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2410,10 +2476,10 @@
         <v>0.62013888888888891</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -2421,7 +2487,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -2432,7 +2498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2444,7 +2510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2456,7 +2522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2468,7 +2534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2479,7 +2545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2490,7 +2556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2501,12 +2567,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>45</v>
       </c>
@@ -2523,7 +2589,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -2537,12 +2603,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -2550,7 +2616,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2558,7 +2624,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2566,7 +2632,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F25" t="s">
         <v>48</v>
       </c>
@@ -2579,25 +2645,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BDC1D4-40E7-4DB7-AECD-977984E5448D}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2611,7 +2678,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2625,7 +2692,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2639,7 +2706,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2653,7 +2720,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2661,262 +2728,407 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="19">
+        <v>453.33333329999999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>6456</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="20">
+        <v>25.3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>12.31818</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <f>((C9-C11)*C9)/(C10-C11)</f>
+        <v>3204512.913437407</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <f>B14/1000/60</f>
+        <v>53.408548557290118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="3">
+        <f>B15/1000</f>
+        <v>5.3408548557290117E-2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="D18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="G18" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E19" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
         <v>100</v>
       </c>
-      <c r="B12">
+      <c r="B20">
         <v>12.6</v>
       </c>
-      <c r="C12">
+      <c r="C20">
         <v>11.4</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D20" s="10">
         <v>25.3</v>
       </c>
-      <c r="E12">
+      <c r="E20">
         <v>11.2</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F20" s="10">
         <v>2.7349999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="G20">
+        <f>(((C9-B20)*C8)/(D20-B20))/1000/60/1000</f>
+        <v>3.8333438317391332E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
         <v>90</v>
-      </c>
-      <c r="B13">
-        <v>13.4</v>
-      </c>
-      <c r="C13">
-        <v>11.4</v>
-      </c>
-      <c r="D13" s="10">
-        <v>25.5</v>
-      </c>
-      <c r="E13">
-        <v>11.2</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>80</v>
-      </c>
-      <c r="B14">
-        <v>11.7</v>
-      </c>
-      <c r="C14">
-        <v>12.5</v>
-      </c>
-      <c r="D14" s="10">
-        <v>26.5</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>70</v>
-      </c>
-      <c r="B15">
-        <v>12.4</v>
-      </c>
-      <c r="C15">
-        <v>11.6</v>
-      </c>
-      <c r="D15" s="10">
-        <v>26.2</v>
-      </c>
-      <c r="E15">
-        <v>11.4</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>60</v>
-      </c>
-      <c r="B16">
-        <v>12.6</v>
-      </c>
-      <c r="C16">
-        <v>11.6</v>
-      </c>
-      <c r="D16" s="10">
-        <v>26.9</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>50</v>
-      </c>
-      <c r="B17">
-        <v>12.7</v>
-      </c>
-      <c r="C17">
-        <v>11.6</v>
-      </c>
-      <c r="D17" s="10">
-        <v>27.4</v>
-      </c>
-      <c r="E17">
-        <v>11.5</v>
-      </c>
-      <c r="F17" s="10">
-        <v>3.5100000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>11.5</v>
-      </c>
-      <c r="D18" s="10">
-        <v>28.1</v>
-      </c>
-      <c r="E18">
-        <v>11.5</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>11.6</v>
-      </c>
-      <c r="D19" s="10">
-        <v>28.3</v>
-      </c>
-      <c r="E19">
-        <v>11.5</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>11.6</v>
-      </c>
-      <c r="D20" s="10">
-        <v>28.3</v>
-      </c>
-      <c r="E20">
-        <v>11.5</v>
-      </c>
-      <c r="F20" s="10">
-        <v>4.62E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>10</v>
       </c>
       <c r="B21">
         <v>13.4</v>
       </c>
       <c r="C21">
+        <v>11.4</v>
+      </c>
+      <c r="D21" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="E21">
+        <v>11.2</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21">
+        <f>(((C9-B21)*C8)/(D21-B21))/1000/60/1000</f>
+        <v>4.0229274560861982E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <v>11.7</v>
+      </c>
+      <c r="C22">
+        <v>12.5</v>
+      </c>
+      <c r="D22" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22">
+        <f>(((C9-B22)*C8)/(D22-B22))/1000/60/1000</f>
+        <v>3.2898828826409795E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>12.4</v>
+      </c>
+      <c r="C23">
+        <v>11.6</v>
+      </c>
+      <c r="D23" s="10">
+        <v>26.2</v>
+      </c>
+      <c r="E23">
+        <v>11.4</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23">
+        <f>(((C9-B23)*C8/(D23-B23))/1000/60/1000)</f>
+        <v>3.5278969401592755E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>12.6</v>
+      </c>
+      <c r="C24">
+        <v>11.6</v>
+      </c>
+      <c r="D24" s="10">
+        <v>26.9</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24">
+        <f>(((C9-B24)*C8)/(D24-B24))/1000/60/1000</f>
+        <v>3.4044382281879018E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>12.7</v>
+      </c>
+      <c r="C25">
+        <v>11.6</v>
+      </c>
+      <c r="D25" s="10">
+        <v>27.4</v>
+      </c>
+      <c r="E25">
+        <v>11.5</v>
+      </c>
+      <c r="F25" s="10">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="G25">
+        <f>(((C9-B25)*C8)/(D25-B25))/1000/60/1000</f>
+        <v>3.3117490549341164E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>11.5</v>
+      </c>
+      <c r="D26" s="10">
+        <v>28.1</v>
+      </c>
+      <c r="E26">
+        <v>11.5</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26">
+        <f>(((C9-B26)*C8)/(D26-B26))/1000/60/1000</f>
+        <v>3.2238704927725166E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>11.6</v>
+      </c>
+      <c r="D27" s="10">
+        <v>28.3</v>
+      </c>
+      <c r="E27">
+        <v>11.5</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27">
+        <f>(((C9-B27)*C8)/(D27-B27))/1000/60/1000</f>
+        <v>3.1817283948277772E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>11.6</v>
+      </c>
+      <c r="D28" s="10">
+        <v>28.3</v>
+      </c>
+      <c r="E28">
+        <v>11.5</v>
+      </c>
+      <c r="F28" s="10">
+        <v>4.62E-3</v>
+      </c>
+      <c r="G28">
+        <f>(((C9-B28)*C8)/(D28-B28))/1000/60/1000</f>
+        <v>2.2875952006664322E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>13.4</v>
+      </c>
+      <c r="C29">
         <v>11.8</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D29" s="10">
         <v>28.9</v>
       </c>
-      <c r="E21">
+      <c r="E29">
         <v>11.5</v>
       </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>0</v>
-      </c>
-      <c r="B22">
+      <c r="F29" s="10"/>
+      <c r="G29">
+        <f>(((C9-B29)*C8)/(D29-B29))/1000/60/1000</f>
+        <v>3.1404788528156778E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>0</v>
+      </c>
+      <c r="B30">
         <v>13.7</v>
       </c>
-      <c r="C22">
+      <c r="C30">
         <v>11.9</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D30" s="10">
         <v>28.7</v>
       </c>
-      <c r="E22">
+      <c r="E30">
         <v>11.5</v>
       </c>
-      <c r="F22">
+      <c r="F30">
         <v>3.6080000000000001E-3</v>
+      </c>
+      <c r="G30">
+        <f>(((C9-B30)*C8)/(D30-B30))/1000/60/1000</f>
+        <v>3.2450103701317668E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2924,16 +3136,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BABCC32-C988-4F35-A9B8-437A3C9646FF}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -2941,7 +3153,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -2977,12 +3189,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3008,7 +3220,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10</v>
       </c>
@@ -3031,7 +3243,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>20</v>
       </c>
@@ -3057,7 +3269,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>30</v>
       </c>
@@ -3083,7 +3295,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>40</v>
       </c>
@@ -3115,7 +3327,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50</v>
       </c>
@@ -3144,7 +3356,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>60</v>
       </c>
@@ -3173,7 +3385,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>70</v>
       </c>
@@ -3202,7 +3414,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>80</v>
       </c>
@@ -3231,7 +3443,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>90</v>
       </c>
@@ -3257,7 +3469,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>100</v>
       </c>
@@ -3297,16 +3509,16 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3314,7 +3526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.55972222222222223</v>
       </c>
@@ -3322,7 +3534,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.56666666666666665</v>
       </c>
@@ -3330,7 +3542,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.57361111111111118</v>
       </c>
@@ -3338,7 +3550,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.5805555555555556</v>
       </c>
@@ -3346,7 +3558,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.58750000000000002</v>
       </c>
@@ -3354,7 +3566,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.59444444444444444</v>
       </c>
@@ -3362,7 +3574,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.60138888888888886</v>
       </c>
@@ -3370,7 +3582,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.60833333333333328</v>
       </c>
@@ -3378,7 +3590,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.61527777777777781</v>
       </c>
@@ -3386,12 +3598,12 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -3405,22 +3617,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CA3F9D-1ACC-497C-B502-156E9E10D37F}">
   <dimension ref="A1:C191"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
@@ -3428,7 +3640,7 @@
         <v>0.56527777777777777</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
@@ -3436,7 +3648,7 @@
         <v>0.60486111111111118</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -3444,7 +3656,7 @@
         <v>0.62083333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3455,7 +3667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3467,7 +3679,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3479,7 +3691,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3491,7 +3703,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3503,7 +3715,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3515,7 +3727,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5</v>
       </c>
@@ -3527,7 +3739,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3539,7 +3751,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7</v>
       </c>
@@ -3551,7 +3763,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8</v>
       </c>
@@ -3563,7 +3775,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9</v>
       </c>
@@ -3575,7 +3787,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10</v>
       </c>
@@ -3587,7 +3799,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>11</v>
       </c>
@@ -3599,7 +3811,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>12</v>
       </c>
@@ -3611,7 +3823,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>13</v>
       </c>
@@ -3623,7 +3835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>13.5</v>
       </c>
@@ -3635,7 +3847,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>14</v>
       </c>
@@ -3647,7 +3859,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>14.5</v>
       </c>
@@ -3659,7 +3871,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>15</v>
       </c>
@@ -3671,7 +3883,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>15.5</v>
       </c>
@@ -3683,7 +3895,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>16</v>
       </c>
@@ -3695,7 +3907,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>16.5</v>
       </c>
@@ -3707,7 +3919,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>17</v>
       </c>
@@ -3719,7 +3931,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>17.5</v>
       </c>
@@ -3731,7 +3943,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>18</v>
       </c>
@@ -3743,7 +3955,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>18.5</v>
       </c>
@@ -3755,7 +3967,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>19</v>
       </c>
@@ -3767,7 +3979,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>19.5</v>
       </c>
@@ -3779,7 +3991,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>20</v>
       </c>
@@ -3791,7 +4003,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>20.5</v>
       </c>
@@ -3803,7 +4015,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>21</v>
       </c>
@@ -3815,7 +4027,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>21.5</v>
       </c>
@@ -3827,7 +4039,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>22</v>
       </c>
@@ -3839,7 +4051,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>22.5</v>
       </c>
@@ -3851,7 +4063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>23</v>
       </c>
@@ -3863,7 +4075,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>23.5</v>
       </c>
@@ -3875,7 +4087,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>24</v>
       </c>
@@ -3887,7 +4099,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>24.5</v>
       </c>
@@ -3899,7 +4111,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>25</v>
       </c>
@@ -3911,7 +4123,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>25.5</v>
       </c>
@@ -3923,7 +4135,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>26</v>
       </c>
@@ -3935,7 +4147,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>26.5</v>
       </c>
@@ -3947,7 +4159,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>27</v>
       </c>
@@ -3956,7 +4168,7 @@
         <v>0.58402777777777781</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>27.5</v>
       </c>
@@ -3968,7 +4180,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" ref="A50:A81" si="1">A49+0.5</f>
         <v>28</v>
@@ -3981,7 +4193,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>28.5</v>
@@ -3991,7 +4203,7 @@
         <v>0.58506944444444442</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -4004,7 +4216,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>29.5</v>
@@ -4017,7 +4229,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -4030,7 +4242,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>30.5</v>
@@ -4043,7 +4255,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -4056,7 +4268,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>31.5</v>
@@ -4069,7 +4281,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -4082,7 +4294,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>32.5</v>
@@ -4095,7 +4307,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -4108,7 +4320,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>33.5</v>
@@ -4121,7 +4333,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -4134,7 +4346,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>34.5</v>
@@ -4147,7 +4359,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -4160,7 +4372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>35.5</v>
@@ -4173,7 +4385,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -4186,7 +4398,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>36.5</v>
@@ -4199,7 +4411,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -4212,7 +4424,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>37.5</v>
@@ -4225,7 +4437,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -4238,7 +4450,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>38.5</v>
@@ -4251,7 +4463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -4264,7 +4476,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>39.5</v>
@@ -4277,7 +4489,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -4290,7 +4502,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>40.5</v>
@@ -4303,7 +4515,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -4316,7 +4528,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>41.5</v>
@@ -4329,7 +4541,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -4342,7 +4554,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>42.5</v>
@@ -4355,7 +4567,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -4368,7 +4580,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>43.5</v>
@@ -4381,7 +4593,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" ref="A82:A109" si="3">A81+0.5</f>
         <v>44</v>
@@ -4394,7 +4606,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>44.5</v>
@@ -4407,7 +4619,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -4420,7 +4632,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>45.5</v>
@@ -4433,7 +4645,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -4446,7 +4658,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>46.5</v>
@@ -4459,7 +4671,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -4472,7 +4684,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>47.5</v>
@@ -4485,7 +4697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -4498,7 +4710,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>48.5</v>
@@ -4511,7 +4723,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -4524,7 +4736,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="3"/>
         <v>49.5</v>
@@ -4537,7 +4749,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -4550,7 +4762,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>50.5</v>
@@ -4563,7 +4775,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -4576,7 +4788,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>51.5</v>
@@ -4589,7 +4801,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -4602,7 +4814,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>52.5</v>
@@ -4615,7 +4827,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -4628,7 +4840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>53.5</v>
@@ -4641,7 +4853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -4654,7 +4866,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="3"/>
         <v>54.5</v>
@@ -4667,7 +4879,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -4680,7 +4892,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" si="3"/>
         <v>55.5</v>
@@ -4693,7 +4905,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -4706,7 +4918,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>56.5</v>
@@ -4719,7 +4931,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -4732,7 +4944,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109">
         <f t="shared" si="3"/>
         <v>57.5</v>
@@ -4745,17 +4957,17 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0</v>
       </c>
@@ -4767,7 +4979,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4779,7 +4991,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2</v>
       </c>
@@ -4791,7 +5003,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>3</v>
       </c>
@@ -4803,7 +5015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116">
         <f>A115+1</f>
         <v>4</v>
@@ -4816,7 +5028,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117">
         <f t="shared" ref="A117:A129" si="5">A116+1</f>
         <v>5</v>
@@ -4829,7 +5041,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4842,7 +5054,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -4855,7 +5067,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -4868,7 +5080,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -4881,7 +5093,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -4894,7 +5106,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -4907,7 +5119,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -4920,7 +5132,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -4933,7 +5145,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -4946,7 +5158,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -4959,7 +5171,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -4972,7 +5184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -4985,7 +5197,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>17.5</v>
       </c>
@@ -4997,7 +5209,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131">
         <f t="shared" ref="A131:A175" si="6">A130+0.5</f>
         <v>18</v>
@@ -5010,7 +5222,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132">
         <f t="shared" si="6"/>
         <v>18.5</v>
@@ -5023,7 +5235,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133">
         <f t="shared" si="6"/>
         <v>19</v>
@@ -5036,7 +5248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134">
         <f t="shared" si="6"/>
         <v>19.5</v>
@@ -5049,7 +5261,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -5062,7 +5274,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136">
         <f t="shared" si="6"/>
         <v>20.5</v>
@@ -5075,7 +5287,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -5088,7 +5300,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138">
         <f t="shared" si="6"/>
         <v>21.5</v>
@@ -5101,7 +5313,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139">
         <f t="shared" si="6"/>
         <v>22</v>
@@ -5114,7 +5326,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140">
         <f t="shared" si="6"/>
         <v>22.5</v>
@@ -5127,7 +5339,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141">
         <f t="shared" si="6"/>
         <v>23</v>
@@ -5140,7 +5352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142">
         <f t="shared" si="6"/>
         <v>23.5</v>
@@ -5153,7 +5365,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -5166,7 +5378,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144">
         <f t="shared" si="6"/>
         <v>24.5</v>
@@ -5179,7 +5391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -5192,7 +5404,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146">
         <f t="shared" si="6"/>
         <v>25.5</v>
@@ -5205,7 +5417,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -5218,7 +5430,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148">
         <f t="shared" si="6"/>
         <v>26.5</v>
@@ -5231,7 +5443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -5244,7 +5456,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150">
         <f t="shared" si="6"/>
         <v>27.5</v>
@@ -5257,7 +5469,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -5270,7 +5482,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152">
         <f t="shared" si="6"/>
         <v>28.5</v>
@@ -5283,7 +5495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -5296,7 +5508,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154">
         <f t="shared" si="6"/>
         <v>29.5</v>
@@ -5309,7 +5521,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -5322,7 +5534,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156">
         <f t="shared" si="6"/>
         <v>30.5</v>
@@ -5335,7 +5547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -5348,7 +5560,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158">
         <f t="shared" si="6"/>
         <v>31.5</v>
@@ -5361,7 +5573,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159">
         <f t="shared" si="6"/>
         <v>32</v>
@@ -5374,7 +5586,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160">
         <f t="shared" si="6"/>
         <v>32.5</v>
@@ -5387,7 +5599,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161">
         <f t="shared" si="6"/>
         <v>33</v>
@@ -5400,7 +5612,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162">
         <f t="shared" si="6"/>
         <v>33.5</v>
@@ -5413,7 +5625,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163">
         <f t="shared" si="6"/>
         <v>34</v>
@@ -5426,7 +5638,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164">
         <f t="shared" si="6"/>
         <v>34.5</v>
@@ -5439,7 +5651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165">
         <f t="shared" si="6"/>
         <v>35</v>
@@ -5452,7 +5664,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166">
         <f t="shared" si="6"/>
         <v>35.5</v>
@@ -5465,7 +5677,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167">
         <f t="shared" si="6"/>
         <v>36</v>
@@ -5478,7 +5690,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168">
         <f t="shared" si="6"/>
         <v>36.5</v>
@@ -5491,7 +5703,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169">
         <f t="shared" si="6"/>
         <v>37</v>
@@ -5504,7 +5716,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170">
         <f t="shared" si="6"/>
         <v>37.5</v>
@@ -5517,7 +5729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171">
         <f t="shared" si="6"/>
         <v>38</v>
@@ -5530,7 +5742,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172">
         <f t="shared" si="6"/>
         <v>38.5</v>
@@ -5543,7 +5755,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173">
         <f t="shared" si="6"/>
         <v>39</v>
@@ -5556,7 +5768,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174">
         <f t="shared" si="6"/>
         <v>39.5</v>
@@ -5569,7 +5781,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -5582,7 +5794,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>41</v>
       </c>
@@ -5594,7 +5806,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>42</v>
       </c>
@@ -5606,7 +5818,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>43</v>
       </c>
@@ -5618,7 +5830,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>44</v>
       </c>
@@ -5630,7 +5842,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>45</v>
       </c>
@@ -5642,7 +5854,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>46</v>
       </c>
@@ -5654,7 +5866,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>47</v>
       </c>
@@ -5666,7 +5878,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>48</v>
       </c>
@@ -5678,7 +5890,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>49</v>
       </c>
@@ -5690,7 +5902,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>50</v>
       </c>
@@ -5702,7 +5914,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>51</v>
       </c>
@@ -5714,7 +5926,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>52</v>
       </c>
@@ -5726,7 +5938,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>53</v>
       </c>
@@ -5738,7 +5950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>54</v>
       </c>
@@ -5750,7 +5962,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>55</v>
       </c>
@@ -5762,7 +5974,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>56</v>
       </c>
@@ -5784,19 +5996,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30259CBD-CE75-4878-A137-CF457F79FFE9}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
@@ -5804,7 +6016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>27</v>
@@ -5813,11 +6025,11 @@
         <v>0.49583333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
         <v>14</v>
       </c>
@@ -5837,7 +6049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5859,7 +6071,7 @@
         <v>3.6075E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F7">
         <v>105</v>
       </c>
@@ -5878,7 +6090,7 @@
         <v>6.900000000000017E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F8">
         <v>110</v>
       </c>
@@ -5897,7 +6109,7 @@
         <v>5.6249999999999801E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F9">
         <v>120</v>
       </c>
@@ -5916,7 +6128,7 @@
         <v>1.5000000000000013E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F10">
         <v>130</v>
       </c>
@@ -5935,7 +6147,7 @@
         <v>4.8000000000000045E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F11">
         <v>140</v>
       </c>
@@ -5954,7 +6166,7 @@
         <v>3.7499999999999865E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F12">
         <v>145</v>
       </c>
@@ -5973,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5983,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5993,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -6004,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="I16">
@@ -6016,7 +6228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I17">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6026,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6039,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6049,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I20">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6059,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I21">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6069,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6079,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I23">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6089,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="F27" s="3" t="s">
         <v>25</v>
@@ -6098,7 +6310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="F28" s="3" t="s">
@@ -6108,12 +6320,12 @@
         <v>0.5131944444444444</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F31" t="s">
         <v>14</v>
       </c>
@@ -6133,7 +6345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F32">
         <v>30</v>
       </c>
@@ -6152,7 +6364,7 @@
         <v>4.62E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F33">
         <v>35</v>
       </c>
@@ -6171,7 +6383,7 @@
         <v>1.7100000000000006E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F34">
         <v>45</v>
       </c>
@@ -6190,7 +6402,7 @@
         <v>9.8999999999999978E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F35">
         <v>55</v>
       </c>
@@ -6209,7 +6421,7 @@
         <v>1.6199999999999988E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F36">
         <v>60</v>
       </c>
@@ -6228,7 +6440,7 @@
         <v>1.8000000000000015E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F37">
         <v>65</v>
       </c>
@@ -6247,7 +6459,7 @@
         <v>1.2000000000000011E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F38">
         <v>80</v>
       </c>
@@ -6266,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I39">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6276,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6286,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="I41">
         <f t="shared" si="4"/>
@@ -6297,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="I42">
@@ -6309,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I43">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6319,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6332,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I45">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6342,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I46">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6352,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I47">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6362,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I48">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6372,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I49">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6382,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F51" s="3" t="s">
         <v>25</v>
       </c>
@@ -6390,7 +6602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F52" s="3" t="s">
         <v>27</v>
       </c>
@@ -6398,7 +6610,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="55" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F55" t="s">
         <v>14</v>
       </c>
@@ -6418,7 +6630,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F56">
         <v>15</v>
       </c>
@@ -6437,7 +6649,7 @@
         <v>3.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F57">
         <v>20</v>
       </c>
@@ -6452,11 +6664,11 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="J57">
-        <f t="shared" ref="J57:J58" si="6">(I57-I56)*(G57/100)*H57</f>
+        <f>(I57-I56)*(G57/100)*H57</f>
         <v>4.8000000000000007E-4</v>
       </c>
     </row>
-    <row r="58" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F58">
         <v>25</v>
       </c>
@@ -6471,11 +6683,11 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="J58">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J57:J58" si="6">(I58-I57)*(G58/100)*H58</f>
         <v>2.0000000000000009E-4</v>
       </c>
     </row>
-    <row r="59" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F59">
         <v>30</v>
       </c>
@@ -6494,7 +6706,7 @@
         <v>9.7999999999999888E-4</v>
       </c>
     </row>
-    <row r="60" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F60">
         <v>35</v>
       </c>
@@ -6513,7 +6725,7 @@
         <v>5.600000000000006E-4</v>
       </c>
     </row>
-    <row r="61" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F61">
         <v>40</v>
       </c>
@@ -6532,7 +6744,7 @@
         <v>8.4000000000000079E-4</v>
       </c>
     </row>
-    <row r="62" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F62">
         <v>45</v>
       </c>
@@ -6551,7 +6763,7 @@
         <v>4.4999999999999945E-4</v>
       </c>
     </row>
-    <row r="63" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F63">
         <v>50</v>
       </c>
@@ -6570,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I64">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6580,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I65">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6590,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I66">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6600,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I67">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6610,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I68">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6620,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I69">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6630,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I70">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6640,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I71">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6650,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I72">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6660,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I73">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6670,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F77" s="3" t="s">
         <v>25</v>
       </c>
@@ -6678,7 +6890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F78" s="3" t="s">
         <v>27</v>
       </c>
@@ -6686,7 +6898,7 @@
         <v>0.55763888888888891</v>
       </c>
     </row>
-    <row r="80" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F80" t="s">
         <v>14</v>
       </c>
@@ -6706,7 +6918,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F81">
         <v>40</v>
       </c>
@@ -6725,7 +6937,7 @@
         <v>2.7350000000000013E-2</v>
       </c>
     </row>
-    <row r="82" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F82">
         <v>50</v>
       </c>
@@ -6740,11 +6952,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82:J83" si="9">(I82-I81)*(G82/100)*H82</f>
+        <f>(I82-I81)*(G82/100)*H82</f>
         <v>4.6200000000000008E-3</v>
       </c>
     </row>
-    <row r="83" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F83">
         <v>60</v>
       </c>
@@ -6759,11 +6971,11 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="J83">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J82:J83" si="9">(I83-I82)*(G83/100)*H83</f>
         <v>1.1199999999999986E-3</v>
       </c>
     </row>
-    <row r="84" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F84">
         <v>70</v>
       </c>
@@ -6782,7 +6994,7 @@
         <v>1.2960000000000011E-2</v>
       </c>
     </row>
-    <row r="85" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F85">
         <v>80</v>
       </c>
@@ -6801,7 +7013,7 @@
         <v>2.8000000000000026E-3</v>
       </c>
     </row>
-    <row r="86" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F86">
         <v>90</v>
       </c>
@@ -6820,7 +7032,7 @@
         <v>5.8499999999999976E-3</v>
       </c>
     </row>
-    <row r="87" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F87">
         <v>95</v>
       </c>
@@ -6839,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I88">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6849,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I89">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6859,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I90">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6869,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I91">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6879,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I92">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6889,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I93">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6899,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I94">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6909,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I95">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6919,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:11" x14ac:dyDescent="0.35">
       <c r="I96">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6929,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I97">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6939,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I98">
         <f t="shared" si="10"/>
         <v>0</v>

--- a/Injections/2022-06-06/InjectionData_2022-06-06.xlsx
+++ b/Injections/2022-06-06/InjectionData_2022-06-06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amymad138\Documents\Ecuador2022\Injections\2022-06-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C88178-2F3B-41D1-B357-995EE2C28F46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49588C4-A2D9-4748-AA0D-92693A25D52E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15500" firstSheet="1" activeTab="2" xr2:uid="{BEB17404-6336-4DE6-B01A-90F77B85CD7A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{BEB17404-6336-4DE6-B01A-90F77B85CD7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
   <si>
     <t>Injection Date</t>
   </si>
@@ -312,13 +312,19 @@
   </si>
   <si>
     <t>Discharge_salt injections (m^3/s)</t>
+  </si>
+  <si>
+    <t>Percent difference</t>
+  </si>
+  <si>
+    <t>(new-original)/original*100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +399,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -460,12 +473,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -491,11 +505,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2645,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BDC1D4-40E7-4DB7-AECD-977984E5448D}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2841,7 +2858,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2849,7 +2866,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>62</v>
@@ -2863,8 +2880,11 @@
       <c r="G18" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I18" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
@@ -2881,8 +2901,11 @@
         <v>37</v>
       </c>
       <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>100</v>
       </c>
@@ -2905,8 +2928,16 @@
         <f>(((C9-B20)*C8)/(D20-B20))/1000/60/1000</f>
         <v>3.8333438317391332E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I20" s="22">
+        <f>((G20-F20)/F20)</f>
+        <v>-0.85984117617041567</v>
+      </c>
+      <c r="J20" s="22">
+        <f>((F20-G20)/G20)</f>
+        <v>6.1347630686161789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>90</v>
       </c>
@@ -2927,8 +2958,10 @@
         <f>(((C9-B21)*C8)/(D21-B21))/1000/60/1000</f>
         <v>4.0229274560861982E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>80</v>
       </c>
@@ -2946,8 +2979,10 @@
         <f>(((C9-B22)*C8)/(D22-B22))/1000/60/1000</f>
         <v>3.2898828826409795E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>70</v>
       </c>
@@ -2968,8 +3003,10 @@
         <f>(((C9-B23)*C8/(D23-B23))/1000/60/1000)</f>
         <v>3.5278969401592755E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>60</v>
       </c>
@@ -2987,8 +3024,10 @@
         <f>(((C9-B24)*C8)/(D24-B24))/1000/60/1000</f>
         <v>3.4044382281879018E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>50</v>
       </c>
@@ -3011,8 +3050,16 @@
         <f>(((C9-B25)*C8)/(D25-B25))/1000/60/1000</f>
         <v>3.3117490549341164E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I25" s="22">
+        <f t="shared" ref="I25:I30" si="0">((G25-F25)/F25)</f>
+        <v>-5.6481750731020998E-2</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" ref="J25:J30" si="1">((F25-G25)/G25)</f>
+        <v>5.9862912852806018E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>40</v>
       </c>
@@ -3033,8 +3080,10 @@
         <f>(((C9-B26)*C8)/(D26-B26))/1000/60/1000</f>
         <v>3.2238704927725166E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>30</v>
       </c>
@@ -3055,8 +3104,10 @@
         <f>(((C9-B27)*C8)/(D27-B27))/1000/60/1000</f>
         <v>3.1817283948277772E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -3079,8 +3130,16 @@
         <f>(((C9-B28)*C8)/(D28-B28))/1000/60/1000</f>
         <v>2.2875952006664322E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I28" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.50484952366527447</v>
+      </c>
+      <c r="J28" s="22">
+        <f t="shared" si="1"/>
+        <v>1.0195880803798161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>10</v>
       </c>
@@ -3101,8 +3160,10 @@
         <f>(((C9-B29)*C8)/(D29-B29))/1000/60/1000</f>
         <v>3.1404788528156778E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>0</v>
       </c>
@@ -3124,6 +3185,14 @@
       <c r="G30">
         <f>(((C9-B30)*C8)/(D30-B30))/1000/60/1000</f>
         <v>3.2450103701317668E-3</v>
+      </c>
+      <c r="I30" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.10060688189252585</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="1"/>
+        <v>0.1118608535767156</v>
       </c>
     </row>
   </sheetData>
@@ -3136,7 +3205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BABCC32-C988-4F35-A9B8-437A3C9646FF}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -6683,7 +6752,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="J58">
-        <f t="shared" ref="J57:J58" si="6">(I58-I57)*(G58/100)*H58</f>
+        <f t="shared" ref="J58" si="6">(I58-I57)*(G58/100)*H58</f>
         <v>2.0000000000000009E-4</v>
       </c>
     </row>
@@ -6971,7 +7040,7 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="J83">
-        <f t="shared" ref="J82:J83" si="9">(I83-I82)*(G83/100)*H83</f>
+        <f t="shared" ref="J83" si="9">(I83-I82)*(G83/100)*H83</f>
         <v>1.1199999999999986E-3</v>
       </c>
     </row>

--- a/Injections/2022-06-06/InjectionData_2022-06-06.xlsx
+++ b/Injections/2022-06-06/InjectionData_2022-06-06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amymad138\Documents\Ecuador2022\Injections\2022-06-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49588C4-A2D9-4748-AA0D-92693A25D52E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E666B0-DB78-4EF0-9191-FDC9EA5B83B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{BEB17404-6336-4DE6-B01A-90F77B85CD7A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15500" activeTab="2" xr2:uid="{BEB17404-6336-4DE6-B01A-90F77B85CD7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="175">
   <si>
     <t>Injection Date</t>
   </si>
@@ -318,13 +318,290 @@
   </si>
   <si>
     <t>(new-original)/original*100</t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600</t>
+    </r>
+  </si>
+  <si>
+    <t>(v*S)^.89*D^.54*5037(+/-)604</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>231.1877±604</t>
+  </si>
+  <si>
+    <t>217.709±604</t>
+  </si>
+  <si>
+    <t>443.559±604</t>
+  </si>
+  <si>
+    <t>525.439±604</t>
+  </si>
+  <si>
+    <t>300.559±604</t>
+  </si>
+  <si>
+    <t>367.339±604</t>
+  </si>
+  <si>
+    <t>826.149±604</t>
+  </si>
+  <si>
+    <t>411.369±604</t>
+  </si>
+  <si>
+    <t>232.469±604</t>
+  </si>
+  <si>
+    <t>1502.99±604</t>
+  </si>
+  <si>
+    <t>1522.49±604</t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> equation 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Do all except 3</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>K600 equation 3</t>
+  </si>
+  <si>
+    <t>1162±192*S^.77*V^.85</t>
+  </si>
+  <si>
+    <t>1162±2.415218</t>
+  </si>
+  <si>
+    <t>1162±2.068488</t>
+  </si>
+  <si>
+    <t>1162±6.433818</t>
+  </si>
+  <si>
+    <t>1162±10.81398</t>
+  </si>
+  <si>
+    <t>1162±3.409058</t>
+  </si>
+  <si>
+    <t>1162±4.962918</t>
+  </si>
+  <si>
+    <t>1162±15.38728</t>
+  </si>
+  <si>
+    <t>1162±10.55078</t>
+  </si>
+  <si>
+    <t>1162±29.50508</t>
+  </si>
+  <si>
+    <t>1162±11.85588</t>
+  </si>
+  <si>
+    <t>K600 equation 4</t>
+  </si>
+  <si>
+    <t>K600 equation 5</t>
+  </si>
+  <si>
+    <t>K600 equation 6</t>
+  </si>
+  <si>
+    <t>((VS)^.76)*951.5±144</t>
+  </si>
+  <si>
+    <t>15.82056805±144</t>
+  </si>
+  <si>
+    <t>13.7735004±144</t>
+  </si>
+  <si>
+    <t>37.99092427±144</t>
+  </si>
+  <si>
+    <t>60.43921799±144</t>
+  </si>
+  <si>
+    <t>21.53036686±144</t>
+  </si>
+  <si>
+    <t>30.1220434±144</t>
+  </si>
+  <si>
+    <t>82.84699943±144</t>
+  </si>
+  <si>
+    <t>59.1222699±144</t>
+  </si>
+  <si>
+    <t>148.277348±144</t>
+  </si>
+  <si>
+    <t>65.6199997±144</t>
+  </si>
+  <si>
+    <t>VS*2841±107+202±.209</t>
+  </si>
+  <si>
+    <t>12.95496±107+202±.209</t>
+  </si>
+  <si>
+    <t>10.7958±107+202±.209</t>
+  </si>
+  <si>
+    <t>41.02404±107+202±.209</t>
+  </si>
+  <si>
+    <t>75.5706±107+202±.209</t>
+  </si>
+  <si>
+    <t>19.43244±107+202±.209</t>
+  </si>
+  <si>
+    <t>30.22824±107+202±.209</t>
+  </si>
+  <si>
+    <t>114.43548±107+202±.209</t>
+  </si>
+  <si>
+    <t>73.41144±107+202±.209</t>
+  </si>
+  <si>
+    <t>246.14424±107+202±.209</t>
+  </si>
+  <si>
+    <t>84.20724±107+202±.209</t>
+  </si>
+  <si>
+    <t>K600 equation 7</t>
+  </si>
+  <si>
+    <t>929±141*(VS)^.75*Q^.011</t>
+  </si>
+  <si>
+    <t>929±2.32309</t>
+  </si>
+  <si>
+    <t>929±2.02546</t>
+  </si>
+  <si>
+    <t>929±5.49348</t>
+  </si>
+  <si>
+    <t>929±8.71785</t>
+  </si>
+  <si>
+    <t>929±3.14850</t>
+  </si>
+  <si>
+    <t>929±4.38678</t>
+  </si>
+  <si>
+    <t>929±11.90937</t>
+  </si>
+  <si>
+    <t>929±8.54006</t>
+  </si>
+  <si>
+    <t>929±4.38646</t>
+  </si>
+  <si>
+    <t>929±21.19132</t>
+  </si>
+  <si>
+    <t>929±9.47430</t>
+  </si>
+  <si>
+    <t>4725±445*((vs)^.86)*q^-.14*d^.66</t>
+  </si>
+  <si>
+    <t>4725±78.42218577</t>
+  </si>
+  <si>
+    <t>4725±76.30924566</t>
+  </si>
+  <si>
+    <t>4725±140.4540721</t>
+  </si>
+  <si>
+    <t>4722±143.5374443</t>
+  </si>
+  <si>
+    <t>4728±98.63139903</t>
+  </si>
+  <si>
+    <t>4723±113.5445453</t>
+  </si>
+  <si>
+    <t>4721±224.9133791</t>
+  </si>
+  <si>
+    <t>4720±105.5939263</t>
+  </si>
+  <si>
+    <t>4723±64.96872965</t>
+  </si>
+  <si>
+    <t>4724±383.4791796</t>
+  </si>
+  <si>
+    <t>4726±500.7650661</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +683,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -479,7 +764,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -507,6 +792,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -2436,7 +2722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712B07F5-C3C0-4DE1-9537-1DA4075EB81C}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C28" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -2664,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BDC1D4-40E7-4DB7-AECD-977984E5448D}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="L14" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3203,26 +3489,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BABCC32-C988-4F35-A9B8-437A3C9646FF}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="9.36328125" customWidth="1"/>
+    <col min="13" max="13" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:25" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -3257,13 +3561,56 @@
       <c r="L2" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-10</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T3" t="s">
+        <v>139</v>
+      </c>
+      <c r="V3" t="s">
+        <v>151</v>
+      </c>
+      <c r="X3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3288,8 +3635,50 @@
       <c r="J4">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4">
+        <f>((J4*N19)^0.89)*(E4^0.54)*5037</f>
+        <v>231.18770371908604</v>
+      </c>
+      <c r="N4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4">
+        <f>192*(N19^0.77)*(J4^0.85)</f>
+        <v>2.4152175599577541</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4">
+        <f>((J4*N19)^0.76)*951.5</f>
+        <v>15.820568047077215</v>
+      </c>
+      <c r="S4" t="s">
+        <v>129</v>
+      </c>
+      <c r="T4">
+        <f>J4*N19*2841</f>
+        <v>12.95496</v>
+      </c>
+      <c r="U4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V4" s="23">
+        <f>141*((J4*N19)^0.75)*((Conductivity!G30)^0.011)</f>
+        <v>2.323090461550676</v>
+      </c>
+      <c r="W4" t="s">
+        <v>152</v>
+      </c>
+      <c r="X4">
+        <f>445*((J4*N19)^0.86)*(Conductivity!G30^-0.14)*(E4^0.66)</f>
+        <v>78.422185774216629</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10</v>
       </c>
@@ -3311,8 +3700,50 @@
       <c r="J5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5">
+        <f>((J5*N19)^0.89)*(E5^0.54)*5037</f>
+        <v>217.70794114321865</v>
+      </c>
+      <c r="N5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <f>192*(N19^0.77)*(J5^0.85)</f>
+        <v>2.0684841549200046</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5">
+        <f>((J5*N19)^0.76)*951.5</f>
+        <v>13.773500402717934</v>
+      </c>
+      <c r="S5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T5">
+        <f>J5*N19*2841</f>
+        <v>10.7958</v>
+      </c>
+      <c r="U5" t="s">
+        <v>141</v>
+      </c>
+      <c r="V5" s="23">
+        <f>141*((J5*N19)^0.75)*((Conductivity!G29)^0.011)</f>
+        <v>2.0254604375962519</v>
+      </c>
+      <c r="W5" t="s">
+        <v>153</v>
+      </c>
+      <c r="X5">
+        <f>445*((J5*N19)^0.86)*(Conductivity!G29^-0.14)*(E5^0.66)</f>
+        <v>76.309245655865368</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>20</v>
       </c>
@@ -3337,8 +3768,50 @@
       <c r="J6">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6">
+        <f>((J6*N19)^0.89)*(E6^0.54)*5037</f>
+        <v>443.552085645327</v>
+      </c>
+      <c r="N6" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6">
+        <f>192*(N19^0.77)*(J6^0.85)</f>
+        <v>6.4338103581792128</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6">
+        <f>((J6*N19)^0.76)*951.5</f>
+        <v>37.990924267803038</v>
+      </c>
+      <c r="S6" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6">
+        <f>J6*N19*2841</f>
+        <v>41.024039999999999</v>
+      </c>
+      <c r="U6" t="s">
+        <v>142</v>
+      </c>
+      <c r="V6" s="23">
+        <f>141*((J6*N19)^0.75)*((Conductivity!G28)^0.011)</f>
+        <v>5.4934816544782885</v>
+      </c>
+      <c r="W6" t="s">
+        <v>154</v>
+      </c>
+      <c r="X6">
+        <f>445*((J6*N19)^0.86)*(Conductivity!G28^-0.14)*(E6^0.66)</f>
+        <v>140.45407205248887</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>30</v>
       </c>
@@ -3363,8 +3836,50 @@
       <c r="J7">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7">
+        <f>((J7*N19)^0.89)*(E7^0.54)*5037</f>
+        <v>525.43413405300385</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7">
+        <f>192*(N19^0.77)*(J7^0.85)</f>
+        <v>10.81397926361603</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R7">
+        <f>((J7*N19)^0.76)*951.5</f>
+        <v>60.439217990264282</v>
+      </c>
+      <c r="S7" t="s">
+        <v>132</v>
+      </c>
+      <c r="T7">
+        <f>J7*N19*2841</f>
+        <v>75.570599999999999</v>
+      </c>
+      <c r="U7" t="s">
+        <v>143</v>
+      </c>
+      <c r="V7" s="23">
+        <f>141*((J7*N19)^0.75)*((Conductivity!G27)^0.011)</f>
+        <v>8.7178548583827364</v>
+      </c>
+      <c r="W7" t="s">
+        <v>155</v>
+      </c>
+      <c r="X7">
+        <f>445*((J7*N19)^0.86)*(Conductivity!G27^-0.14)*(E7^0.66)</f>
+        <v>143.53744426888741</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>40</v>
       </c>
@@ -3395,8 +3910,50 @@
       <c r="J8">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8">
+        <f>((J8*N19)^0.89)*(E8^0.54)*5037</f>
+        <v>300.55785252440268</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8">
+        <f>192*(N19^0.77)*(J8^0.85)</f>
+        <v>3.4090535855449682</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8">
+        <f>((J8*N19)^0.76)*951.5</f>
+        <v>21.530366860884282</v>
+      </c>
+      <c r="S8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8">
+        <f>J8*N19*2841</f>
+        <v>19.43244</v>
+      </c>
+      <c r="U8" t="s">
+        <v>144</v>
+      </c>
+      <c r="V8" s="23">
+        <f>141*((J8*N19)^0.75)*((Conductivity!G26)^0.011)</f>
+        <v>3.148497424676246</v>
+      </c>
+      <c r="W8" t="s">
+        <v>156</v>
+      </c>
+      <c r="X8">
+        <f>445*((J8*N19)^0.86)*(Conductivity!G26^-0.14)*(E8^0.66)</f>
+        <v>98.631399028162321</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50</v>
       </c>
@@ -3424,8 +3981,50 @@
       <c r="J9">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9">
+        <f>((J9*N19)^0.89)*(E9^0.54)*5037</f>
+        <v>367.33231768821105</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9">
+        <f>192*(N19^0.77)*(J9^0.85)</f>
+        <v>4.9629114346149734</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9">
+        <f>((J9*N19)^0.76)*951.5</f>
+        <v>30.122043396627436</v>
+      </c>
+      <c r="S9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9">
+        <f>J9*N19*2841</f>
+        <v>30.22824</v>
+      </c>
+      <c r="U9" t="s">
+        <v>145</v>
+      </c>
+      <c r="V9" s="23">
+        <f>141*((J9*N19)^0.75)*((Conductivity!G25)^0.011)</f>
+        <v>4.3867811158375778</v>
+      </c>
+      <c r="W9" t="s">
+        <v>157</v>
+      </c>
+      <c r="X9">
+        <f>445*((J9*N19)^0.86)*(Conductivity!G25^-0.14)*(E9^0.66)</f>
+        <v>113.54454533994435</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>60</v>
       </c>
@@ -3453,8 +4052,50 @@
       <c r="J10">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10">
+        <f>((J10*N19)^0.89)*(E10^0.54)*5037</f>
+        <v>826.14164207376621</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10">
+        <f>192*(N19^0.77)*(J10^0.85)</f>
+        <v>15.387291595432735</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10">
+        <f>((J10*N19)^0.76)*951.5</f>
+        <v>82.846999426465672</v>
+      </c>
+      <c r="S10" t="s">
+        <v>135</v>
+      </c>
+      <c r="T10">
+        <f>J10*N19*2841</f>
+        <v>114.43548000000001</v>
+      </c>
+      <c r="U10" t="s">
+        <v>146</v>
+      </c>
+      <c r="V10" s="23">
+        <f>141*((J10*N19)^0.75)*((Conductivity!G24)^0.011)</f>
+        <v>11.909367833394759</v>
+      </c>
+      <c r="W10" t="s">
+        <v>158</v>
+      </c>
+      <c r="X10">
+        <f>445*((J10*N19)^0.86)*(Conductivity!G24^-0.14)*(E10^0.66)</f>
+        <v>224.91337907735235</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>70</v>
       </c>
@@ -3482,8 +4123,50 @@
       <c r="J11">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11">
+        <f>((J11*N19)^0.89)*(E11^0.54)*5037</f>
+        <v>411.36248181333747</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11">
+        <f>192*(N19^0.77)*(J11^0.85)</f>
+        <v>10.550785024572392</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11">
+        <f>((J11*N19)^0.76)*951.5</f>
+        <v>59.122269899502342</v>
+      </c>
+      <c r="S11" t="s">
+        <v>136</v>
+      </c>
+      <c r="T11">
+        <f>J11*N19*2841</f>
+        <v>73.411439999999999</v>
+      </c>
+      <c r="U11" t="s">
+        <v>147</v>
+      </c>
+      <c r="V11" s="23">
+        <f>141*((J11*N19)^0.75)*((Conductivity!G23)^0.011)</f>
+        <v>8.5400648670228634</v>
+      </c>
+      <c r="W11" t="s">
+        <v>159</v>
+      </c>
+      <c r="X11">
+        <f>445*((J11*N19)^0.86)*(Conductivity!G23^-0.14)*(E11^0.66)</f>
+        <v>105.59392634020703</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>80</v>
       </c>
@@ -3511,8 +4194,50 @@
       <c r="J12">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12">
+        <f>((J12*N19)^0.89)*(E12^0.54)*5037</f>
+        <v>232.46184209057643</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12">
+        <f>192*(N19^0.77)*(J12^0.85)</f>
+        <v>4.9629114346149734</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12">
+        <f>((J12*N19)^0.76)*951.5</f>
+        <v>30.122043396627436</v>
+      </c>
+      <c r="S12" t="s">
+        <v>134</v>
+      </c>
+      <c r="T12">
+        <f>J12*N19*2841</f>
+        <v>30.22824</v>
+      </c>
+      <c r="U12" t="s">
+        <v>145</v>
+      </c>
+      <c r="V12" s="23">
+        <f>141*((J12*N19)^0.75)*((Conductivity!G22)^0.011)</f>
+        <v>4.3864614649833182</v>
+      </c>
+      <c r="W12" t="s">
+        <v>160</v>
+      </c>
+      <c r="X12">
+        <f>445*((J12*N19)^0.86)*(Conductivity!G22^-0.14)*(E12^0.66)</f>
+        <v>64.968729654014766</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>90</v>
       </c>
@@ -3537,8 +4262,50 @@
       <c r="J13">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M13">
+        <f>((J13*N19)^0.89)*(E13^0.54)*5037</f>
+        <v>1502.9448371221367</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13">
+        <f>192*(N19^0.77)*(J13^0.85)</f>
+        <v>29.505081486086866</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13">
+        <f>((J13*N19)^0.76)*951.5</f>
+        <v>148.27734795788095</v>
+      </c>
+      <c r="S13" t="s">
+        <v>137</v>
+      </c>
+      <c r="T13">
+        <f>J13*N19*2841</f>
+        <v>246.14424</v>
+      </c>
+      <c r="U13" t="s">
+        <v>148</v>
+      </c>
+      <c r="V13" s="23">
+        <f>141*((J13*N19)^0.75)*((Conductivity!G21)^0.011)</f>
+        <v>21.1913151192839</v>
+      </c>
+      <c r="W13" t="s">
+        <v>161</v>
+      </c>
+      <c r="X13">
+        <f>445*((J13*N19)^0.86)*(Conductivity!G21^-0.14)*(E13^0.66)</f>
+        <v>383.4791795932959</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>100</v>
       </c>
@@ -3562,6 +4329,58 @@
       </c>
       <c r="J14">
         <v>0.39</v>
+      </c>
+      <c r="M14">
+        <f>((J14*N19)^0.89)*(E14^0.54)*5037</f>
+        <v>1522.4635320165114</v>
+      </c>
+      <c r="N14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14">
+        <f>192*(N19^0.77)*(J14^0.85)</f>
+        <v>11.855847672702787</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>124</v>
+      </c>
+      <c r="R14">
+        <f>((J14*N19)^0.76)*951.5</f>
+        <v>65.619999704842414</v>
+      </c>
+      <c r="S14" t="s">
+        <v>138</v>
+      </c>
+      <c r="T14">
+        <f>J14*N19*2841</f>
+        <v>84.207239999999999</v>
+      </c>
+      <c r="U14" t="s">
+        <v>149</v>
+      </c>
+      <c r="V14" s="23">
+        <f>141*((J14*N19)^0.75)*((Conductivity!G20)^0.011)</f>
+        <v>9.4742996790282099</v>
+      </c>
+      <c r="W14" t="s">
+        <v>162</v>
+      </c>
+      <c r="X14">
+        <f>445*((J14*N19)^0.86)*(Conductivity!G20^-0.14)*(E14^0.66)</f>
+        <v>500.76506606381145</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N18" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3686,8 +4505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CA3F9D-1ACC-497C-B502-156E9E10D37F}">
   <dimension ref="A1:C191"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6065,7 +6884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30259CBD-CE75-4878-A137-CF457F79FFE9}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>

--- a/Injections/2022-06-06/InjectionData_2022-06-06.xlsx
+++ b/Injections/2022-06-06/InjectionData_2022-06-06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amymad138\Documents\Ecuador2022\Injections\2022-06-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2022\Injections\2022-06-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E666B0-DB78-4EF0-9191-FDC9EA5B83B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB15AA0-B9DC-4FFC-BD31-6EB731C46E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15500" activeTab="2" xr2:uid="{BEB17404-6336-4DE6-B01A-90F77B85CD7A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BEB17404-6336-4DE6-B01A-90F77B85CD7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -599,7 +609,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -792,7 +802,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -853,7 +863,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1705,7 +1715,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2032695104"/>
@@ -1767,7 +1777,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2032694688"/>
@@ -1815,7 +1825,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-EC"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2722,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712B07F5-C3C0-4DE1-9537-1DA4075EB81C}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2950,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BDC1D4-40E7-4DB7-AECD-977984E5448D}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="L14" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3491,7 +3501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BABCC32-C988-4F35-A9B8-437A3C9646FF}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
